--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2038741.057573206</v>
+        <v>2037046.199339314</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1287228.184107717</v>
+        <v>1287228.184107715</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25.17354161800006</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>83.51289199636497</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>223.4920785133188</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.65516930006966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>237.5752781578165</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>14.41159395080544</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>98.38353541244604</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>103.0088977318019</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>18.29749587628862</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1181,7 +1181,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>340.3186215224812</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E11" t="n">
-        <v>356.9760998237354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>381.9217754931851</v>
@@ -1385,10 +1385,10 @@
         <v>387.9966247312782</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855052</v>
+        <v>94.85220997855049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638753</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U11" t="n">
         <v>226.2032352564837</v>
@@ -1430,10 +1430,10 @@
         <v>302.7979882216085</v>
       </c>
       <c r="W11" t="n">
-        <v>265.8440057948494</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299427</v>
+        <v>159.5870515568882</v>
       </c>
       <c r="Y11" t="n">
         <v>361.2836684075272</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980428</v>
+        <v>10.80538249159788</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.4667777744049</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S13" t="n">
-        <v>180.6773288969401</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320203</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>261.3072160754402</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753017</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y13" t="n">
-        <v>164.3069619136409</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855049</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638753</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564837</v>
+        <v>63.35716875271675</v>
       </c>
       <c r="V14" t="n">
         <v>302.7979882216085</v>
       </c>
       <c r="W14" t="n">
-        <v>280.8920648526364</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y14" t="n">
         <v>361.2836684075272</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686988</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>109.8435506573077</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>73.89032894764242</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177992</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X16" t="n">
         <v>200.7553851405108</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>330.2331195868998</v>
       </c>
       <c r="H17" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417209</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T17" t="n">
         <v>130.0828834728174</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686988</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -2005,13 +2005,13 @@
         <v>84.52904570572308</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2458470430379944</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002649</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>84.21824836927563</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S19" t="n">
         <v>122.9138237525617</v>
@@ -2062,7 +2062,7 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W19" t="n">
-        <v>203.8052229436863</v>
+        <v>137.1404577377778</v>
       </c>
       <c r="X19" t="n">
         <v>142.9918799961324</v>
@@ -2132,7 +2132,7 @@
         <v>72.70968241949684</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U20" t="n">
         <v>168.4397301121053</v>
@@ -2242,7 +2242,7 @@
         <v>84.52904570572308</v>
       </c>
       <c r="D22" t="n">
-        <v>65.8976976253076</v>
+        <v>6.659542602451396</v>
       </c>
       <c r="E22" t="n">
         <v>63.71618725366442</v>
@@ -2254,7 +2254,7 @@
         <v>84.21824836927563</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307801</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>41.00730760263663</v>
@@ -2296,7 +2296,7 @@
         <v>203.5437109310619</v>
       </c>
       <c r="V22" t="n">
-        <v>40.05183009498911</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W22" t="n">
         <v>203.8052229436863</v>
@@ -2327,16 +2327,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G23" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H23" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949681</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U23" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V23" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W23" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X23" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y23" t="n">
         <v>303.5201632631488</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D25" t="n">
-        <v>65.89769762530757</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G25" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307797</v>
+        <v>70.12988281307801</v>
       </c>
       <c r="I25" t="n">
-        <v>41.0073076026366</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342078</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T25" t="n">
         <v>140.7202764876419</v>
       </c>
       <c r="U25" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V25" t="n">
-        <v>169.4198679309232</v>
+        <v>40.05183009498935</v>
       </c>
       <c r="W25" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X25" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.498840123256429</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.27521265882034</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D28" t="n">
         <v>65.89769762530764</v>
@@ -2764,7 +2764,7 @@
         <v>122.9138237525617</v>
       </c>
       <c r="T28" t="n">
-        <v>140.7202764876419</v>
+        <v>11.35223865170619</v>
       </c>
       <c r="U28" t="n">
         <v>203.5437109310619</v>
@@ -2792,7 +2792,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C29" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D29" t="n">
         <v>271.9652662277782</v>
@@ -2804,13 +2804,13 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G29" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H29" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T29" t="n">
         <v>130.0828834728174</v>
@@ -2858,7 +2858,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.5201632631485</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903256</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C31" t="n">
-        <v>21.05870549509609</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>59.44348354193409</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366443</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F31" t="n">
-        <v>62.7032726300265</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G31" t="n">
-        <v>84.21824836927564</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H31" t="n">
-        <v>70.12988281307801</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263664</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342082</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>140.7202764876419</v>
@@ -3016,7 +3016,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C32" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D32" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E32" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793572</v>
       </c>
       <c r="F32" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G32" t="n">
         <v>330.2331195868999</v>
       </c>
       <c r="H32" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579091</v>
       </c>
       <c r="I32" t="n">
-        <v>37.08870483417215</v>
+        <v>37.0887048341722</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>72.70968241949689</v>
+        <v>72.70968241949694</v>
       </c>
       <c r="T32" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728175</v>
       </c>
       <c r="U32" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V32" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W32" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245084</v>
       </c>
       <c r="X32" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855644</v>
       </c>
       <c r="Y32" t="n">
         <v>303.5201632631489</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.11420478903258</v>
+        <v>97.11420478903264</v>
       </c>
       <c r="C34" t="n">
-        <v>21.05870549509564</v>
+        <v>21.05870549509384</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>63.71618725366446</v>
+        <v>63.71618725366451</v>
       </c>
       <c r="F34" t="n">
-        <v>62.70327263002653</v>
+        <v>62.70327263002659</v>
       </c>
       <c r="G34" t="n">
-        <v>84.21824836927567</v>
+        <v>84.21824836927573</v>
       </c>
       <c r="H34" t="n">
-        <v>70.12988281307804</v>
+        <v>70.1298828130781</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263667</v>
+        <v>41.00730760263673</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342091</v>
       </c>
       <c r="S34" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T34" t="n">
-        <v>140.7202764876419</v>
+        <v>140.720276487642</v>
       </c>
       <c r="U34" t="n">
-        <v>203.5437109310619</v>
+        <v>203.543710931062</v>
       </c>
       <c r="V34" t="n">
         <v>169.4198679309233</v>
@@ -3250,7 +3250,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X34" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y34" t="n">
         <v>135.8668779591901</v>
@@ -3266,7 +3266,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C35" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D35" t="n">
         <v>271.9652662277782</v>
@@ -3275,16 +3275,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F35" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G35" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H35" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949681</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T35" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U35" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V35" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W35" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X35" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C37" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D37" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366439</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G37" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307797</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I37" t="n">
-        <v>41.0073076026366</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342078</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T37" t="n">
         <v>140.7202764876419</v>
       </c>
       <c r="U37" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V37" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W37" t="n">
-        <v>203.8052229436862</v>
+        <v>185.2943485348365</v>
       </c>
       <c r="X37" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.498840123256429</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G38" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H38" t="n">
         <v>232.671219357909</v>
@@ -3661,7 +3661,7 @@
         <v>97.11420478903258</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572312</v>
+        <v>25.29089068286566</v>
       </c>
       <c r="D40" t="n">
         <v>65.89769762530764</v>
@@ -3670,13 +3670,13 @@
         <v>63.71618725366446</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G40" t="n">
         <v>84.21824836927567</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307804</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>41.00730760263667</v>
@@ -3724,7 +3724,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X40" t="n">
-        <v>76.32711479022331</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y40" t="n">
         <v>135.8668779591901</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C41" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D41" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E41" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793572</v>
       </c>
       <c r="F41" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G41" t="n">
         <v>330.2331195868999</v>
       </c>
       <c r="H41" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579091</v>
       </c>
       <c r="I41" t="n">
-        <v>37.08870483417215</v>
+        <v>37.0887048341722</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949689</v>
+        <v>72.70968241949694</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728175</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V41" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W41" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245084</v>
       </c>
       <c r="X41" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855644</v>
       </c>
       <c r="Y41" t="n">
         <v>303.5201632631489</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11420478903258</v>
+        <v>8.753474555732851</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572312</v>
+        <v>84.52904570572318</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.8976976253077</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366446</v>
+        <v>63.71618725366451</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002653</v>
+        <v>62.70327263002659</v>
       </c>
       <c r="G43" t="n">
-        <v>84.21824836927567</v>
+        <v>84.21824836927573</v>
       </c>
       <c r="H43" t="n">
-        <v>6.659542602450358</v>
+        <v>70.1298828130781</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263667</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342091</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T43" t="n">
-        <v>140.7202764876419</v>
+        <v>140.720276487642</v>
       </c>
       <c r="U43" t="n">
-        <v>203.5437109310619</v>
+        <v>203.543710931062</v>
       </c>
       <c r="V43" t="n">
         <v>169.4198679309233</v>
@@ -3961,7 +3961,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X43" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y43" t="n">
         <v>135.8668779591901</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C44" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D44" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E44" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793572</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G44" t="n">
         <v>330.2331195868999</v>
       </c>
       <c r="H44" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579091</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417215</v>
+        <v>37.0887048341722</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949689</v>
+        <v>72.70968241949694</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728175</v>
       </c>
       <c r="U44" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V44" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W44" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245084</v>
       </c>
       <c r="X44" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855644</v>
       </c>
       <c r="Y44" t="n">
         <v>303.5201632631489</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>74.65117218104052</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572312</v>
+        <v>84.52904570572318</v>
       </c>
       <c r="D46" t="n">
-        <v>65.89769762530764</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366446</v>
+        <v>63.71618725366451</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002653</v>
+        <v>62.70327263002659</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927567</v>
+        <v>84.21824836927573</v>
       </c>
       <c r="H46" t="n">
-        <v>70.12988281307804</v>
+        <v>70.1298828130781</v>
       </c>
       <c r="I46" t="n">
-        <v>8.753474555733955</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342091</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T46" t="n">
-        <v>140.7202764876419</v>
+        <v>140.720276487642</v>
       </c>
       <c r="U46" t="n">
-        <v>203.5437109310619</v>
+        <v>203.543710931062</v>
       </c>
       <c r="V46" t="n">
         <v>169.4198679309233</v>
@@ -4198,7 +4198,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y46" t="n">
         <v>135.8668779591901</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4355,25 +4355,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>315.6850394389064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.6850394389064</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.7661011803829</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C3" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4413,46 +4413,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="V3" t="n">
-        <v>226.0945550188371</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="W3" t="n">
-        <v>226.0945550188371</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="X3" t="n">
-        <v>226.0945550188371</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.7661011803829</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>502.8591282797204</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>502.8591282797204</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>502.8591282797204</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>502.8591282797204</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4592,25 +4592,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>742.8341567219593</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>742.8341567219593</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>742.8341567219593</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>691.2625024638849</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>463.038884200274</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>227.8867759685313</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>227.8867759685313</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>238.2612061051368</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>591.4512093066566</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>348.0024326625565</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4829,25 +4829,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4948,10 +4948,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1651.049784880453</v>
+        <v>1916.895639477128</v>
       </c>
       <c r="C11" t="n">
-        <v>1307.293601524411</v>
+        <v>1573.139456121086</v>
       </c>
       <c r="D11" t="n">
-        <v>1307.293601524411</v>
+        <v>1240.080091098706</v>
       </c>
       <c r="E11" t="n">
-        <v>946.7116825105371</v>
+        <v>1240.080091098706</v>
       </c>
       <c r="F11" t="n">
-        <v>560.9321113052996</v>
+        <v>854.3005198934682</v>
       </c>
       <c r="G11" t="n">
-        <v>169.0163287484529</v>
+        <v>462.3847373366218</v>
       </c>
       <c r="H11" t="n">
-        <v>169.0163287484529</v>
+        <v>169.0163287484527</v>
       </c>
       <c r="I11" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J11" t="n">
         <v>258.9898176069164</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L11" t="n">
         <v>1205.679240092235</v>
@@ -5051,7 +5051,7 @@
         <v>1831.488208231172</v>
       </c>
       <c r="N11" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O11" t="n">
         <v>2994.282791219484</v>
@@ -5060,31 +5060,31 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q11" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R11" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S11" t="n">
-        <v>3528.509683390925</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T11" t="n">
-        <v>3528.509683390925</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="U11" t="n">
-        <v>3300.021566970234</v>
+        <v>3110.277740084177</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.165013211033</v>
+        <v>2804.421186324976</v>
       </c>
       <c r="W11" t="n">
-        <v>2725.635714428356</v>
+        <v>2804.421186324976</v>
       </c>
       <c r="X11" t="n">
-        <v>2377.376289751646</v>
+        <v>2643.222144348321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2012.443291360205</v>
+        <v>2278.28914595688</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I12" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J12" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K12" t="n">
-        <v>233.989549271449</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L12" t="n">
-        <v>367.3097855513992</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M12" t="n">
-        <v>1003.293094265572</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.816002121468</v>
+        <v>1730.136461337641</v>
       </c>
       <c r="O12" t="n">
-        <v>2216.96817800723</v>
+        <v>2275.288637223403</v>
       </c>
       <c r="P12" t="n">
         <v>2637.497792942953</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195.9127756368289</v>
+        <v>205.8041573216371</v>
       </c>
       <c r="C13" t="n">
-        <v>195.9127756368289</v>
+        <v>205.8041573216371</v>
       </c>
       <c r="D13" t="n">
-        <v>195.9127756368289</v>
+        <v>205.8041573216371</v>
       </c>
       <c r="E13" t="n">
-        <v>73.20601563880588</v>
+        <v>194.8896295523462</v>
       </c>
       <c r="F13" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="G13" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H13" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I13" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965308</v>
+        <v>79.32466191965307</v>
       </c>
       <c r="K13" t="n">
         <v>203.3235852420086</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895912</v>
+        <v>410.6171321895913</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475064</v>
+        <v>638.2252920475063</v>
       </c>
       <c r="N13" t="n">
         <v>866.4434782183685</v>
@@ -5221,28 +5221,28 @@
         <v>1238.295262094752</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094752</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="S13" t="n">
-        <v>1055.7929096736</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="T13" t="n">
-        <v>855.3042413584279</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="U13" t="n">
-        <v>591.3575584539428</v>
+        <v>868.384456647035</v>
       </c>
       <c r="V13" t="n">
-        <v>361.8794038324258</v>
+        <v>868.384456647035</v>
       </c>
       <c r="W13" t="n">
-        <v>361.8794038324258</v>
+        <v>604.1736201944444</v>
       </c>
       <c r="X13" t="n">
-        <v>361.8794038324258</v>
+        <v>401.3904028807972</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.9127756368289</v>
+        <v>205.8041573216371</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1984.109149902834</v>
+        <v>1888.298836793186</v>
       </c>
       <c r="C14" t="n">
-        <v>1640.352966546792</v>
+        <v>1544.542653437145</v>
       </c>
       <c r="D14" t="n">
-        <v>1307.293601524412</v>
+        <v>1211.483288414764</v>
       </c>
       <c r="E14" t="n">
-        <v>946.7116825105373</v>
+        <v>850.90136940089</v>
       </c>
       <c r="F14" t="n">
-        <v>560.9321113052998</v>
+        <v>465.1217981956526</v>
       </c>
       <c r="G14" t="n">
-        <v>169.0163287484528</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H14" t="n">
-        <v>169.0163287484528</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I14" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223502</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L14" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M14" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N14" t="n">
         <v>2452.791422191916</v>
@@ -5297,31 +5297,31 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q14" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R14" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S14" t="n">
-        <v>3528.509683390925</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="T14" t="n">
-        <v>3528.509683390925</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="U14" t="n">
-        <v>3300.021566970234</v>
+        <v>3596.303641786034</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.165013211034</v>
+        <v>3290.447088026834</v>
       </c>
       <c r="W14" t="n">
-        <v>2710.435654774027</v>
+        <v>2962.88476634109</v>
       </c>
       <c r="X14" t="n">
-        <v>2710.435654774027</v>
+        <v>2614.62534166438</v>
       </c>
       <c r="Y14" t="n">
-        <v>2345.502656382585</v>
+        <v>2249.692343272938</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I15" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J15" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K15" t="n">
-        <v>516.6851972600604</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L15" t="n">
-        <v>650.0054335400106</v>
+        <v>638.3586107252378</v>
       </c>
       <c r="M15" t="n">
-        <v>1285.988742254183</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.511650110079</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O15" t="n">
-        <v>2109.740129911879</v>
+        <v>2488.017003181068</v>
       </c>
       <c r="P15" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.936419551312</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>269.5263254590557</v>
+        <v>306.8658571088566</v>
       </c>
       <c r="C16" t="n">
-        <v>269.5263254590557</v>
+        <v>195.9127756368289</v>
       </c>
       <c r="D16" t="n">
-        <v>269.5263254590557</v>
+        <v>195.9127756368289</v>
       </c>
       <c r="E16" t="n">
-        <v>269.5263254590557</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="F16" t="n">
-        <v>147.8427115455154</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="G16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I16" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3246619196531</v>
+        <v>79.32466191965307</v>
       </c>
       <c r="K16" t="n">
         <v>203.3235852420086</v>
@@ -5443,10 +5443,10 @@
         <v>410.6171321895913</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475064</v>
+        <v>638.2252920475063</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183686</v>
+        <v>866.4434782183685</v>
       </c>
       <c r="O16" t="n">
         <v>1063.109528897734</v>
@@ -5455,31 +5455,31 @@
         <v>1211.436193392007</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.295262094752</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="R16" t="n">
-        <v>1132.33113955152</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="S16" t="n">
-        <v>1132.33113955152</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="T16" t="n">
-        <v>931.8424712363482</v>
+        <v>1037.80659377958</v>
       </c>
       <c r="U16" t="n">
-        <v>667.8957883318631</v>
+        <v>773.8599108750944</v>
       </c>
       <c r="V16" t="n">
-        <v>667.8957883318631</v>
+        <v>773.8599108750944</v>
       </c>
       <c r="W16" t="n">
-        <v>667.8957883318631</v>
+        <v>509.6490744225039</v>
       </c>
       <c r="X16" t="n">
-        <v>465.1125710182158</v>
+        <v>306.8658571088566</v>
       </c>
       <c r="Y16" t="n">
-        <v>269.5263254590557</v>
+        <v>306.8658571088566</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C17" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646024</v>
       </c>
       <c r="E17" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135348</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499996</v>
       </c>
       <c r="H17" t="n">
         <v>110.6693538551413</v>
@@ -5513,10 +5513,10 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K17" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092235</v>
@@ -5543,22 +5543,22 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J18" t="n">
-        <v>122.1871825176794</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K18" t="n">
-        <v>448.7081841161895</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L18" t="n">
-        <v>949.1603622465643</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M18" t="n">
-        <v>1585.143670960737</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N18" t="n">
-        <v>1779.117628216515</v>
+        <v>1730.136461337641</v>
       </c>
       <c r="O18" t="n">
-        <v>2324.269804102277</v>
+        <v>2275.288637223403</v>
       </c>
       <c r="P18" t="n">
         <v>2429.521278084463</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>419.5025855012077</v>
+        <v>486.8407321738416</v>
       </c>
       <c r="C19" t="n">
-        <v>334.1197110509823</v>
+        <v>401.4578577236163</v>
       </c>
       <c r="D19" t="n">
-        <v>333.8713807044793</v>
+        <v>334.8945267889621</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044793</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="F19" t="n">
         <v>270.5347416842505</v>
@@ -5674,10 +5674,10 @@
         <v>136.5105320125877</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683952</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M19" t="n">
         <v>866.9687724192449</v>
@@ -5710,13 +5710,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>799.2732549399504</v>
+        <v>866.611401612585</v>
       </c>
       <c r="X19" t="n">
-        <v>654.8370125196145</v>
+        <v>722.1751591922493</v>
       </c>
       <c r="Y19" t="n">
-        <v>517.5977418537658</v>
+        <v>584.9358885263997</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1583.639525775092</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646024</v>
       </c>
       <c r="E20" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135346</v>
+        <v>679.2595952135348</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499995</v>
       </c>
       <c r="H20" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551419</v>
       </c>
       <c r="I20" t="n">
         <v>73.20601563880588</v>
@@ -5783,19 +5783,19 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U20" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V20" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W20" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X20" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J21" t="n">
-        <v>122.1871825176796</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K21" t="n">
-        <v>448.7081841161896</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L21" t="n">
-        <v>949.1603622465643</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M21" t="n">
-        <v>1585.143670960737</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N21" t="n">
-        <v>1779.117628216515</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O21" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P21" t="n">
         <v>2429.521278084463</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.1773711940705</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C22" t="n">
-        <v>464.7944967438451</v>
+        <v>334.1197110509821</v>
       </c>
       <c r="D22" t="n">
-        <v>398.2311658091909</v>
+        <v>327.3929003414353</v>
       </c>
       <c r="E22" t="n">
-        <v>333.8713807044794</v>
+        <v>263.0331152367237</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842506</v>
+        <v>199.696476216495</v>
       </c>
       <c r="G22" t="n">
-        <v>185.4658039375075</v>
+        <v>114.627538469752</v>
       </c>
       <c r="H22" t="n">
         <v>114.627538469752</v>
@@ -5908,16 +5908,16 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125878</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278779</v>
       </c>
       <c r="L22" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683953</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192448</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N22" t="n">
         <v>1152.372828683042</v>
@@ -5926,10 +5926,10 @@
         <v>1406.224749455342</v>
       </c>
       <c r="P22" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q22" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R22" t="n">
         <v>1648.165075188308</v>
@@ -5944,16 +5944,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V22" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W22" t="n">
-        <v>929.948040632813</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X22" t="n">
-        <v>785.5117982124773</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y22" t="n">
-        <v>648.2725275466286</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D23" t="n">
         <v>1308.927135646023</v>
       </c>
       <c r="E23" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.2595952135346</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499989</v>
       </c>
       <c r="H23" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I23" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J23" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069159</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223497</v>
       </c>
       <c r="L23" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M23" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N23" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P23" t="n">
         <v>3418.758763931393</v>
       </c>
       <c r="Q23" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R23" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S23" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T23" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U23" t="n">
         <v>3285.318664764112</v>
@@ -6026,7 +6026,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X23" t="n">
         <v>2478.681289322392</v>
@@ -6063,25 +6063,25 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I24" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J24" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K24" t="n">
-        <v>448.7081841161896</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L24" t="n">
-        <v>949.1603622465643</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M24" t="n">
-        <v>1585.143670960737</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N24" t="n">
-        <v>1779.117628216515</v>
+        <v>1730.136461337641</v>
       </c>
       <c r="O24" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P24" t="n">
         <v>2429.521278084463</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>550.1773711940702</v>
+        <v>550.1773711940704</v>
       </c>
       <c r="C25" t="n">
-        <v>464.7944967438449</v>
+        <v>464.794496743845</v>
       </c>
       <c r="D25" t="n">
-        <v>398.2311658091908</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044792</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F25" t="n">
         <v>270.5347416842505</v>
@@ -6139,58 +6139,58 @@
         <v>185.4658039375075</v>
       </c>
       <c r="H25" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I25" t="n">
-        <v>73.20601563880588</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5105320125878</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278779</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L25" t="n">
-        <v>582.1747424683953</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N25" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O25" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P25" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q25" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R25" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S25" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T25" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V25" t="n">
-        <v>1005.137116499229</v>
+        <v>1135.811902192092</v>
       </c>
       <c r="W25" t="n">
-        <v>799.2732549399502</v>
+        <v>929.9480406328125</v>
       </c>
       <c r="X25" t="n">
-        <v>654.8370125196145</v>
+        <v>785.5117982124768</v>
       </c>
       <c r="Y25" t="n">
-        <v>648.2725275466283</v>
+        <v>648.2725275466285</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>679.2595952135341</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551411</v>
       </c>
       <c r="I26" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J26" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K26" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L26" t="n">
         <v>1205.679240092235</v>
@@ -6303,22 +6303,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J27" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K27" t="n">
-        <v>448.7081841161896</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L27" t="n">
-        <v>949.1603622465643</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M27" t="n">
-        <v>1585.143670960737</v>
+        <v>1075.114490969363</v>
       </c>
       <c r="N27" t="n">
-        <v>1779.117628216515</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O27" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P27" t="n">
         <v>2429.521278084463</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>464.7944967438453</v>
+        <v>550.1773711940704</v>
       </c>
       <c r="C28" t="n">
-        <v>464.7944967438453</v>
+        <v>464.794496743845</v>
       </c>
       <c r="D28" t="n">
-        <v>398.2311658091911</v>
+        <v>398.2311658091908</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044795</v>
+        <v>333.8713807044792</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842507</v>
+        <v>270.5347416842504</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375076</v>
+        <v>185.4658039375073</v>
       </c>
       <c r="H28" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697517</v>
       </c>
       <c r="I28" t="n">
         <v>73.20601563880588</v>
@@ -6409,25 +6409,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T28" t="n">
-        <v>1381.868004238607</v>
+        <v>1512.542789931471</v>
       </c>
       <c r="U28" t="n">
-        <v>1176.268296227434</v>
+        <v>1306.943081920298</v>
       </c>
       <c r="V28" t="n">
-        <v>1005.137116499229</v>
+        <v>1135.811902192092</v>
       </c>
       <c r="W28" t="n">
-        <v>799.2732549399495</v>
+        <v>929.9480406328132</v>
       </c>
       <c r="X28" t="n">
-        <v>654.8370125196137</v>
+        <v>785.5117982124774</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.5977418537648</v>
+        <v>648.2725275466286</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>679.2595952135341</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H29" t="n">
         <v>110.6693538551414</v>
@@ -6461,10 +6461,10 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J29" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K29" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L29" t="n">
         <v>1205.679240092235</v>
@@ -6494,16 +6494,16 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U29" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V29" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W29" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y29" t="n">
         <v>2172.095265824262</v>
@@ -6540,22 +6540,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J30" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K30" t="n">
-        <v>448.7081841161896</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L30" t="n">
-        <v>949.1603622465643</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M30" t="n">
-        <v>1585.143670960737</v>
+        <v>1075.114490969363</v>
       </c>
       <c r="N30" t="n">
-        <v>1779.117628216515</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O30" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P30" t="n">
         <v>2429.521278084463</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>419.5025855012072</v>
+        <v>543.6579630290469</v>
       </c>
       <c r="C31" t="n">
-        <v>398.2311658091909</v>
+        <v>458.2750885788215</v>
       </c>
       <c r="D31" t="n">
-        <v>398.2311658091909</v>
+        <v>398.2311658091911</v>
       </c>
       <c r="E31" t="n">
-        <v>333.8713807044794</v>
+        <v>333.8713807044795</v>
       </c>
       <c r="F31" t="n">
-        <v>270.5347416842506</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H31" t="n">
         <v>114.627538469752</v>
@@ -6619,52 +6619,52 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K31" t="n">
         <v>317.6953254278777</v>
       </c>
       <c r="L31" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M31" t="n">
         <v>866.9687724192447</v>
       </c>
       <c r="N31" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O31" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P31" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q31" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R31" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660469</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="T31" t="n">
-        <v>1381.868004238608</v>
+        <v>1506.023381766448</v>
       </c>
       <c r="U31" t="n">
-        <v>1176.268296227434</v>
+        <v>1300.423673755274</v>
       </c>
       <c r="V31" t="n">
-        <v>1005.137116499229</v>
+        <v>1129.292494027069</v>
       </c>
       <c r="W31" t="n">
-        <v>799.2732549399497</v>
+        <v>923.4286324677895</v>
       </c>
       <c r="X31" t="n">
-        <v>654.8370125196138</v>
+        <v>778.9923900474537</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.5977418537653</v>
+        <v>641.7531193816051</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1006.692191525461</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135346</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499993</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H32" t="n">
-        <v>110.6693538551417</v>
+        <v>110.6693538551415</v>
       </c>
       <c r="I32" t="n">
         <v>73.20601563880588</v>
@@ -6701,19 +6701,19 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K32" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M32" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N32" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O32" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P32" t="n">
         <v>3418.758763931393</v>
@@ -6786,10 +6786,10 @@
         <v>1017.137375390435</v>
       </c>
       <c r="M33" t="n">
-        <v>1653.120684104607</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N33" t="n">
-        <v>1853.763183346939</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O33" t="n">
         <v>2008.991663148739</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>419.5025855012069</v>
+        <v>419.5025855012054</v>
       </c>
       <c r="C34" t="n">
-        <v>398.2311658091911</v>
+        <v>398.2311658091914</v>
       </c>
       <c r="D34" t="n">
-        <v>398.2311658091911</v>
+        <v>398.2311658091914</v>
       </c>
       <c r="E34" t="n">
-        <v>333.8713807044795</v>
+        <v>333.8713807044797</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842507</v>
+        <v>270.5347416842509</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4658039375076</v>
+        <v>185.4658039375077</v>
       </c>
       <c r="H34" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697521</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880588</v>
@@ -6859,19 +6859,19 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K34" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L34" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192444</v>
       </c>
       <c r="N34" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O34" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P34" t="n">
         <v>1611.737284042549</v>
@@ -6889,19 +6889,19 @@
         <v>1381.868004238607</v>
       </c>
       <c r="U34" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V34" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W34" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399484</v>
       </c>
       <c r="X34" t="n">
-        <v>654.8370125196137</v>
+        <v>654.8370125196125</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.5977418537651</v>
+        <v>517.5977418537636</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237823</v>
       </c>
       <c r="C35" t="n">
         <v>1583.639525775092</v>
@@ -6923,22 +6923,22 @@
         <v>1006.692191525461</v>
       </c>
       <c r="F35" t="n">
-        <v>679.2595952135346</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551416</v>
       </c>
       <c r="I35" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J35" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K35" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L35" t="n">
         <v>1205.679240092235</v>
@@ -6968,19 +6968,19 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W35" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K36" t="n">
-        <v>448.7081841161896</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L36" t="n">
-        <v>949.1603622465643</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M36" t="n">
-        <v>1585.143670960737</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N36" t="n">
-        <v>1779.117628216515</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O36" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P36" t="n">
         <v>2429.521278084463</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>550.1773711940702</v>
+        <v>485.8175860893592</v>
       </c>
       <c r="C37" t="n">
-        <v>464.7944967438449</v>
+        <v>400.4347116391338</v>
       </c>
       <c r="D37" t="n">
-        <v>398.2311658091908</v>
+        <v>333.8713807044795</v>
       </c>
       <c r="E37" t="n">
-        <v>333.8713807044792</v>
+        <v>333.8713807044795</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H37" t="n">
         <v>114.627538469752</v>
@@ -7093,52 +7093,52 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125878</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K37" t="n">
-        <v>317.6953254278779</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L37" t="n">
-        <v>582.1747424683953</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N37" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O37" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P37" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q37" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R37" t="n">
-        <v>1648.165075188309</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.009697660469</v>
+        <v>1571.626845310388</v>
       </c>
       <c r="T37" t="n">
-        <v>1381.868004238608</v>
+        <v>1429.485151888528</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.268296227435</v>
+        <v>1223.885443877354</v>
       </c>
       <c r="V37" t="n">
-        <v>1005.137116499229</v>
+        <v>1052.754264149149</v>
       </c>
       <c r="W37" t="n">
-        <v>799.2732549399502</v>
+        <v>865.5882555281017</v>
       </c>
       <c r="X37" t="n">
-        <v>654.8370125196145</v>
+        <v>721.1520131077659</v>
       </c>
       <c r="Y37" t="n">
-        <v>648.2725275466283</v>
+        <v>583.9127424419174</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G38" t="n">
         <v>345.6907875499987</v>
@@ -7181,13 +7181,13 @@
         <v>1205.679240092235</v>
       </c>
       <c r="M38" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N38" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O38" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P38" t="n">
         <v>3418.758763931393</v>
@@ -7202,7 +7202,7 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T38" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U38" t="n">
         <v>3285.318664764112</v>
@@ -7251,22 +7251,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J39" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K39" t="n">
-        <v>448.7081841161896</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L39" t="n">
-        <v>949.1603622465643</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M39" t="n">
-        <v>1585.143670960737</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N39" t="n">
-        <v>1779.117628216515</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O39" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P39" t="n">
         <v>2429.521278084463</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>486.8407321738421</v>
+        <v>419.5025855012067</v>
       </c>
       <c r="C40" t="n">
-        <v>401.4578577236168</v>
+        <v>393.9562312760899</v>
       </c>
       <c r="D40" t="n">
-        <v>334.8945267889626</v>
+        <v>327.3929003414357</v>
       </c>
       <c r="E40" t="n">
-        <v>270.5347416842507</v>
+        <v>263.0331152367241</v>
       </c>
       <c r="F40" t="n">
-        <v>270.5347416842507</v>
+        <v>199.6964762164953</v>
       </c>
       <c r="G40" t="n">
-        <v>185.4658039375076</v>
+        <v>114.627538469752</v>
       </c>
       <c r="H40" t="n">
         <v>114.627538469752</v>
@@ -7366,16 +7366,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V40" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>799.2732549399492</v>
+        <v>799.2732549399494</v>
       </c>
       <c r="X40" t="n">
-        <v>722.1751591922489</v>
+        <v>654.8370125196135</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.9358885264003</v>
+        <v>517.5977418537649</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E41" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135332</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499998</v>
+        <v>345.6907875499978</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6693538551422</v>
+        <v>110.6693538551415</v>
       </c>
       <c r="I41" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J41" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K41" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L41" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M41" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N41" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O41" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P41" t="n">
         <v>3418.758763931393</v>
@@ -7439,19 +7439,19 @@
         <v>3586.856658284236</v>
       </c>
       <c r="T41" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U41" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V41" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W41" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y41" t="n">
         <v>2172.095265824262</v>
@@ -7491,19 +7491,19 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K42" t="n">
-        <v>448.7081841161896</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L42" t="n">
-        <v>949.1603622465643</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M42" t="n">
-        <v>1585.143670960737</v>
+        <v>1192.072670992107</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.117628216515</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O42" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P42" t="n">
         <v>2429.521278084463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>419.5025855012067</v>
+        <v>508.7558483631249</v>
       </c>
       <c r="C43" t="n">
-        <v>334.1197110509813</v>
+        <v>423.3729739128994</v>
       </c>
       <c r="D43" t="n">
-        <v>334.1197110509813</v>
+        <v>356.8096429782451</v>
       </c>
       <c r="E43" t="n">
-        <v>269.7599259462697</v>
+        <v>292.4498578735335</v>
       </c>
       <c r="F43" t="n">
-        <v>206.4232869260409</v>
+        <v>229.1132188533046</v>
       </c>
       <c r="G43" t="n">
-        <v>121.3543491792978</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H43" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I43" t="n">
         <v>73.20601563880588</v>
@@ -7570,19 +7570,19 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K43" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L43" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O43" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P43" t="n">
         <v>1611.737284042549</v>
@@ -7594,25 +7594,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T43" t="n">
         <v>1381.868004238607</v>
       </c>
       <c r="U43" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V43" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W43" t="n">
-        <v>799.2732549399494</v>
+        <v>799.2732549399486</v>
       </c>
       <c r="X43" t="n">
-        <v>654.8370125196136</v>
+        <v>654.8370125196127</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.5977418537649</v>
+        <v>517.5977418537641</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237823</v>
       </c>
       <c r="C44" t="n">
         <v>1583.639525775092</v>
@@ -7631,37 +7631,37 @@
         <v>1308.927135646023</v>
       </c>
       <c r="E44" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551415</v>
       </c>
       <c r="I44" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L44" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M44" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N44" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O44" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P44" t="n">
         <v>3418.758763931393</v>
@@ -7679,19 +7679,19 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U44" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W44" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="45">
@@ -7734,7 +7734,7 @@
         <v>1017.137375390435</v>
       </c>
       <c r="M45" t="n">
-        <v>1269.865530007199</v>
+        <v>1192.072670992107</v>
       </c>
       <c r="N45" t="n">
         <v>1463.839487262977</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>517.5977418537647</v>
+        <v>442.1925174284706</v>
       </c>
       <c r="C46" t="n">
-        <v>432.2148674035393</v>
+        <v>356.8096429782452</v>
       </c>
       <c r="D46" t="n">
-        <v>365.6515364688851</v>
+        <v>356.8096429782452</v>
       </c>
       <c r="E46" t="n">
-        <v>301.2917513641735</v>
+        <v>292.4498578735336</v>
       </c>
       <c r="F46" t="n">
-        <v>237.9551123439448</v>
+        <v>229.1132188533047</v>
       </c>
       <c r="G46" t="n">
-        <v>152.8861745972017</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H46" t="n">
-        <v>82.04790912944624</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I46" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J46" t="n">
-        <v>136.5105320125874</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683946</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M46" t="n">
         <v>866.9687724192443</v>
@@ -7843,13 +7843,13 @@
         <v>1005.137116499228</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399491</v>
+        <v>799.2732549399484</v>
       </c>
       <c r="X46" t="n">
-        <v>654.8370125196133</v>
+        <v>654.8370125196125</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537647</v>
+        <v>517.5977418537641</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,10 +8073,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>7.951459559858918</v>
       </c>
       <c r="K12" t="n">
-        <v>97.05365320867261</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>259.5532138761252</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>216.6966405963616</v>
+        <v>44.67607654515081</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627456</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>57.42738570013522</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>49.47592614027607</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>57.42738570013536</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>196.7182212503392</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K24" t="n">
-        <v>195.8015873723051</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>124.8754767770688</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K27" t="n">
-        <v>195.8015873723051</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>196.7182212503392</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K30" t="n">
-        <v>195.8015873723051</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>196.7182212503392</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546978945</v>
       </c>
       <c r="N33" t="n">
-        <v>6.735900996518836</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>195.8015873723051</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546978945</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599053</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K39" t="n">
-        <v>195.8015873723051</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>196.7182212503392</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>195.8015873723051</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>78.57864546978945</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>78.57864546978945</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022873</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171958</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>58.4426926740372</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>185.1897788730544</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.877709933411</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C13" t="n">
         <v>142.2925508501015</v>
@@ -23422,10 +23422,10 @@
         <v>123.661202769686</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.6743099064449</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4667777744049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>141.981753513654</v>
@@ -23434,7 +23434,7 @@
         <v>127.8933879574564</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701504</v>
+        <v>98.77081274701501</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177992</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.6773288969401</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>198.4837816320203</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>227.1833730753016</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880646</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.32342118992758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>290.4347245022873</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>94.85220997855049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171958</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>162.8460665037669</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>43.39463361625022</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299427</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.877709933411</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501015</v>
+        <v>32.44900019279378</v>
       </c>
       <c r="D16" t="n">
         <v>123.661202769686</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.4667777744049</v>
       </c>
       <c r="G16" t="n">
-        <v>68.09142456601163</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H16" t="n">
         <v>127.8933879574564</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701503</v>
+        <v>98.77081274701501</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S16" t="n">
         <v>180.6773288969401</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753017</v>
+        <v>227.1833730753016</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.6518505822696</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>66.66476520590851</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>59.2381550228562</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>129.3680378359341</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>129.3680378359339</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.3680378359336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.83899213021224</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572312</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>129.3680378359357</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>63.470340210627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.89769762530761</v>
+        <v>6.45421408337355</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>63.47034021062748</v>
+        <v>63.47034021062933</v>
       </c>
       <c r="D34" t="n">
-        <v>65.89769762530764</v>
+        <v>65.8976976253077</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>18.51087440884976</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.3680378359336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>59.23815502285746</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002653</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.12988281307805</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>66.66476520590915</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>88.36073023329979</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.89769762530764</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>63.47034021062768</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.00730760263673</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903258</v>
+        <v>22.46303260799212</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.8976976253077</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>32.25383304690271</v>
+        <v>41.00730760263673</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783976.2657713831</v>
+        <v>783976.265771383</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>891098.0021417318</v>
+        <v>891098.0021417317</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>891098.0021417318</v>
+        <v>891098.0021417317</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>891098.0021417318</v>
+        <v>891098.0021417319</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>891098.0021417319</v>
+        <v>891098.0021417318</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>574729.2389049981</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
+        <v>501141.3649557882</v>
+      </c>
+      <c r="F2" t="n">
         <v>501141.3649557884</v>
       </c>
-      <c r="F2" t="n">
-        <v>501141.3649557882</v>
-      </c>
       <c r="G2" t="n">
-        <v>572555.855869355</v>
+        <v>572555.8558693551</v>
       </c>
       <c r="H2" t="n">
         <v>572555.8558693546</v>
       </c>
       <c r="I2" t="n">
+        <v>572555.8558693555</v>
+      </c>
+      <c r="J2" t="n">
         <v>572555.8558693547</v>
       </c>
-      <c r="J2" t="n">
-        <v>572555.8558693544</v>
-      </c>
       <c r="K2" t="n">
-        <v>572555.8558693547</v>
+        <v>572555.8558693548</v>
       </c>
       <c r="L2" t="n">
-        <v>572555.8558693549</v>
+        <v>572555.855869355</v>
       </c>
       <c r="M2" t="n">
-        <v>572555.8558693547</v>
+        <v>572555.8558693548</v>
       </c>
       <c r="N2" t="n">
-        <v>572555.8558693548</v>
+        <v>572555.8558693546</v>
       </c>
       <c r="O2" t="n">
+        <v>572555.8558693553</v>
+      </c>
+      <c r="P2" t="n">
         <v>572555.855869355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>572555.8558693546</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893666</v>
+        <v>691230.6639893665</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550272</v>
+        <v>46210.80411550271</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792726</v>
+        <v>83023.35879792731</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550269</v>
+        <v>46210.80411550267</v>
       </c>
       <c r="M3" t="n">
-        <v>167978.6741701942</v>
+        <v>167978.6741701941</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882103</v>
+        <v>19963.41619882101</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>58212.5123756421</v>
+        <v>58212.51237564211</v>
       </c>
       <c r="F4" t="n">
-        <v>58212.5123756421</v>
+        <v>58212.51237564211</v>
       </c>
       <c r="G4" t="n">
         <v>116585.175488433</v>
@@ -26436,7 +26436,7 @@
         <v>116585.175488433</v>
       </c>
       <c r="I4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
       <c r="J4" t="n">
         <v>116585.175488433</v>
@@ -26445,10 +26445,10 @@
         <v>116585.175488433</v>
       </c>
       <c r="L4" t="n">
+        <v>116585.1754884329</v>
+      </c>
+      <c r="M4" t="n">
         <v>116585.175488433</v>
-      </c>
-      <c r="M4" t="n">
-        <v>116585.1754884331</v>
       </c>
       <c r="N4" t="n">
         <v>116585.175488433</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133083.1641909716</v>
+        <v>133083.1641909715</v>
       </c>
       <c r="C6" t="n">
-        <v>213852.5957225196</v>
+        <v>213852.5957225195</v>
       </c>
       <c r="D6" t="n">
         <v>213852.5957225194</v>
       </c>
       <c r="E6" t="n">
-        <v>-318789.7179486997</v>
+        <v>-319052.5317842325</v>
       </c>
       <c r="F6" t="n">
-        <v>372440.9460406669</v>
+        <v>372178.1322051341</v>
       </c>
       <c r="G6" t="n">
-        <v>334415.8496119572</v>
+        <v>334408.0875296872</v>
       </c>
       <c r="H6" t="n">
-        <v>380626.6537274595</v>
+        <v>380618.8916451893</v>
       </c>
       <c r="I6" t="n">
-        <v>380626.6537274596</v>
+        <v>380618.8916451902</v>
       </c>
       <c r="J6" t="n">
-        <v>297603.2949295322</v>
+        <v>297595.5328472622</v>
       </c>
       <c r="K6" t="n">
-        <v>380626.6537274596</v>
+        <v>380618.8916451896</v>
       </c>
       <c r="L6" t="n">
-        <v>334415.8496119572</v>
+        <v>334408.0875296873</v>
       </c>
       <c r="M6" t="n">
-        <v>212647.9795572654</v>
+        <v>212640.2174749955</v>
       </c>
       <c r="N6" t="n">
-        <v>380626.6537274598</v>
+        <v>380618.8916451894</v>
       </c>
       <c r="O6" t="n">
-        <v>360663.237528639</v>
+        <v>360655.475446369</v>
       </c>
       <c r="P6" t="n">
-        <v>380626.6537274595</v>
+        <v>380618.8916451898</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="G2" t="n">
         <v>82.71777539290476</v>
@@ -26704,28 +26704,28 @@
         <v>82.71777539290476</v>
       </c>
       <c r="I2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J2" t="n">
         <v>82.71777539290471</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L2" t="n">
+        <v>82.71777539290466</v>
+      </c>
+      <c r="M2" t="n">
         <v>82.71777539290471</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82.71777539290478</v>
       </c>
       <c r="N2" t="n">
         <v>82.71777539290471</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="3">
@@ -26747,10 +26747,10 @@
         <v>585.0208306634614</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0208306634615</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="G3" t="n">
-        <v>585.0208306634615</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="H3" t="n">
         <v>585.0208306634614</v>
@@ -26796,10 +26796,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="F4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="G4" t="n">
         <v>915.0751954850734</v>
@@ -26808,7 +26808,7 @@
         <v>915.0751954850734</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="J4" t="n">
         <v>915.0751954850734</v>
@@ -26823,7 +26823,7 @@
         <v>915.0751954850734</v>
       </c>
       <c r="N4" t="n">
-        <v>915.0751954850734</v>
+        <v>915.0751954850736</v>
       </c>
       <c r="O4" t="n">
         <v>915.0751954850734</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.7635051443784</v>
+        <v>57.76350514437839</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437837</v>
+        <v>57.76350514437833</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852627</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.0609066074144</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074144</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.7635051443784</v>
+        <v>57.76350514437839</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852628</v>
+        <v>24.95427024852632</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074144</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>265.7280767210481</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.449303567656045</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>139.0275264772347</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>54.03113748306089</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145.1585635056641</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>201.5644868610308</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>152.1215896990619</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,10 +27710,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>101.7811932823756</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>312.2938397833332</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>321.1773062394785</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.2220797075721</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27983,10 +27983,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195238</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852637</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195238</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S17" t="n">
         <v>82.71777539290476</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="K34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="L34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="M34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="N34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="O34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="P34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="R34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="S34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="38">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
   </sheetData>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.351842535330497</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H14" t="n">
-        <v>24.08580736495346</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332906</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J14" t="n">
         <v>199.6096953830069</v>
@@ -32002,31 +32002,31 @@
         <v>299.1631899035469</v>
       </c>
       <c r="L14" t="n">
-        <v>371.1383908941677</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M14" t="n">
-        <v>412.9629705818514</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N14" t="n">
-        <v>419.6451431853592</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O14" t="n">
-        <v>396.2590089746666</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1978963836949</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.9725355871714</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R14" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384375</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T14" t="n">
-        <v>10.29519069840926</v>
+        <v>10.29519069840925</v>
       </c>
       <c r="U14" t="n">
         <v>0.1881474028264397</v>
@@ -32072,7 +32072,7 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573749</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J15" t="n">
         <v>118.8861671068078</v>
@@ -32081,13 +32081,13 @@
         <v>203.1953954956289</v>
       </c>
       <c r="L15" t="n">
-        <v>273.2212851131573</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M15" t="n">
-        <v>318.8363527115865</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N15" t="n">
-        <v>327.275002240685</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O15" t="n">
         <v>299.3926886886867</v>
@@ -32099,16 +32099,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R15" t="n">
-        <v>78.12787621577326</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S15" t="n">
         <v>23.37323790433734</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563405</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660332006</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H16" t="n">
-        <v>9.379514301456815</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I16" t="n">
         <v>31.7253919317169</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688098</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K16" t="n">
         <v>122.5666592767055</v>
@@ -32175,16 +32175,16 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018269</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R16" t="n">
-        <v>47.43463981084393</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S16" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734866</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U16" t="n">
         <v>0.05754303252427496</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.351842535330497</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H17" t="n">
-        <v>24.08580736495346</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332906</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J17" t="n">
         <v>199.6096953830069</v>
@@ -32239,31 +32239,31 @@
         <v>299.1631899035469</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941677</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818514</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N17" t="n">
-        <v>419.6451431853592</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O17" t="n">
-        <v>396.2590089746666</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P17" t="n">
-        <v>338.1978963836949</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.9725355871714</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R17" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384375</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T17" t="n">
-        <v>10.29519069840926</v>
+        <v>10.29519069840925</v>
       </c>
       <c r="U17" t="n">
         <v>0.1881474028264397</v>
@@ -32309,7 +32309,7 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573749</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J18" t="n">
         <v>118.8861671068078</v>
@@ -32318,13 +32318,13 @@
         <v>203.1953954956289</v>
       </c>
       <c r="L18" t="n">
-        <v>273.2212851131573</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115865</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N18" t="n">
-        <v>327.275002240685</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O18" t="n">
         <v>299.3926886886867</v>
@@ -32336,16 +32336,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577326</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S18" t="n">
         <v>23.37323790433734</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563405</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332006</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.379514301456815</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I19" t="n">
         <v>31.7253919317169</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688098</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K19" t="n">
         <v>122.5666592767055</v>
@@ -32412,16 +32412,16 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018269</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R19" t="n">
-        <v>47.43463981084393</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S19" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734866</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U19" t="n">
         <v>0.05754303252427496</v>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,10 +34781,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,10 +34793,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>162.4076097299425</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L12" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M12" t="n">
         <v>642.4073825395681</v>
       </c>
       <c r="N12" t="n">
-        <v>675.2756645009051</v>
+        <v>195.9332901573516</v>
       </c>
       <c r="O12" t="n">
         <v>550.6587635209718</v>
       </c>
       <c r="P12" t="n">
-        <v>424.7773888239634</v>
+        <v>365.8678340601514</v>
       </c>
       <c r="Q12" t="n">
         <v>20.6450773821802</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734547</v>
+        <v>6.180450788734561</v>
       </c>
       <c r="K13" t="n">
         <v>125.251437699349</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591744</v>
+        <v>209.3874211591745</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797122</v>
+        <v>229.9072321797123</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746082</v>
+        <v>230.5234203746083</v>
       </c>
       <c r="O13" t="n">
         <v>198.6525764438038</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8249136305786</v>
+        <v>149.8249136305787</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701465</v>
+        <v>27.13037242701466</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N14" t="n">
-        <v>627.5790040007525</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O14" t="n">
-        <v>546.9609788157252</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P14" t="n">
-        <v>428.763608799908</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.9818363726266</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L15" t="n">
-        <v>134.6669053332831</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M15" t="n">
         <v>642.4073825395681</v>
@@ -35738,13 +35738,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O15" t="n">
-        <v>156.7964442442423</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P15" t="n">
-        <v>323.0112607803878</v>
+        <v>150.990696729177</v>
       </c>
       <c r="Q15" t="n">
-        <v>230.7223651180293</v>
+        <v>20.6450773821802</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734557</v>
+        <v>6.180450788734561</v>
       </c>
       <c r="K16" t="n">
         <v>125.251437699349</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>187.6604060283942</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K17" t="n">
         <v>403.2187514297311</v>
@@ -35893,16 +35893,16 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007525</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O17" t="n">
-        <v>546.9609788157252</v>
+        <v>546.9609788157253</v>
       </c>
       <c r="P17" t="n">
-        <v>428.763608799908</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9818363726266</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>49.47592614027633</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>329.8191935338485</v>
@@ -35975,10 +35975,10 @@
         <v>195.9332901573516</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209719</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P18" t="n">
-        <v>106.3146201840263</v>
+        <v>155.7905463243023</v>
       </c>
       <c r="Q18" t="n">
         <v>230.7223651180293</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311296</v>
+        <v>63.94395593311295</v>
       </c>
       <c r="K19" t="n">
         <v>183.0149428437274</v>
@@ -36048,19 +36048,19 @@
         <v>267.1509263035529</v>
       </c>
       <c r="M19" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
         <v>288.2869255189867</v>
       </c>
       <c r="O19" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
         <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139306</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>49.47592614027644</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>329.8191935338485</v>
@@ -36206,7 +36206,7 @@
         <v>505.5072506367422</v>
       </c>
       <c r="M21" t="n">
-        <v>642.4073825395681</v>
+        <v>373.4205400399073</v>
       </c>
       <c r="N21" t="n">
         <v>195.9332901573516</v>
@@ -36215,7 +36215,7 @@
         <v>550.6587635209718</v>
       </c>
       <c r="P21" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q21" t="n">
         <v>230.7223651180293</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>261.155543893575</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L24" t="n">
         <v>505.5072506367422</v>
@@ -36449,10 +36449,10 @@
         <v>195.9332901573516</v>
       </c>
       <c r="O24" t="n">
-        <v>550.6587635209718</v>
+        <v>281.6719210213111</v>
       </c>
       <c r="P24" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q24" t="n">
         <v>230.7223651180293</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311297</v>
+        <v>63.94395593311295</v>
       </c>
       <c r="K25" t="n">
         <v>183.0149428437274</v>
@@ -36522,19 +36522,19 @@
         <v>267.1509263035529</v>
       </c>
       <c r="M25" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N25" t="n">
         <v>288.2869255189867</v>
       </c>
       <c r="O25" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P25" t="n">
         <v>207.5884187749571</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>261.155543893575</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L27" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M27" t="n">
-        <v>642.4073825395681</v>
+        <v>176.7023187895681</v>
       </c>
       <c r="N27" t="n">
-        <v>195.9332901573516</v>
+        <v>392.6515114076908</v>
       </c>
       <c r="O27" t="n">
         <v>550.6587635209718</v>
       </c>
       <c r="P27" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q27" t="n">
         <v>230.7223651180293</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>261.155543893575</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L30" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M30" t="n">
-        <v>642.4073825395681</v>
+        <v>176.7023187895681</v>
       </c>
       <c r="N30" t="n">
-        <v>195.9332901573516</v>
+        <v>392.6515114076908</v>
       </c>
       <c r="O30" t="n">
         <v>550.6587635209718</v>
       </c>
       <c r="P30" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q30" t="n">
         <v>230.7223651180293</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311293</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K31" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L31" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M31" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N31" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O31" t="n">
         <v>256.4160815881821</v>
@@ -37008,7 +37008,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>505.5072506367422</v>
       </c>
       <c r="M33" t="n">
-        <v>642.4073825395681</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N33" t="n">
-        <v>202.6691911538704</v>
+        <v>195.9332901573516</v>
       </c>
       <c r="O33" t="n">
-        <v>156.7964442442423</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P33" t="n">
         <v>424.7773888239634</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311285</v>
       </c>
       <c r="K34" t="n">
         <v>183.0149428437273</v>
@@ -37233,19 +37233,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M34" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N34" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O34" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P34" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K36" t="n">
-        <v>261.155543893575</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L36" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M36" t="n">
-        <v>642.4073825395681</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N36" t="n">
         <v>195.9332901573516</v>
@@ -37400,7 +37400,7 @@
         <v>550.6587635209718</v>
       </c>
       <c r="P36" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q36" t="n">
         <v>230.7223651180293</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311297</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K37" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L37" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M37" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O37" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P37" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>428.7636087999079</v>
       </c>
       <c r="Q38" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726271</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>261.155543893575</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L39" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M39" t="n">
-        <v>642.4073825395681</v>
+        <v>373.4205400399073</v>
       </c>
       <c r="N39" t="n">
         <v>195.9332901573516</v>
@@ -37637,7 +37637,7 @@
         <v>550.6587635209718</v>
       </c>
       <c r="P39" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q39" t="n">
         <v>230.7223651180293</v>
@@ -37783,7 +37783,7 @@
         <v>403.2187514297311</v>
       </c>
       <c r="L41" t="n">
-        <v>553.0331904746308</v>
+        <v>553.0331904746307</v>
       </c>
       <c r="M41" t="n">
         <v>632.1302708474111</v>
@@ -37859,22 +37859,22 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K42" t="n">
-        <v>261.155543893575</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L42" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M42" t="n">
-        <v>642.4073825395681</v>
+        <v>176.7023187895681</v>
       </c>
       <c r="N42" t="n">
-        <v>195.9332901573516</v>
+        <v>274.511935627141</v>
       </c>
       <c r="O42" t="n">
         <v>550.6587635209718</v>
       </c>
       <c r="P42" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q42" t="n">
         <v>230.7223651180293</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311285</v>
       </c>
       <c r="K43" t="n">
         <v>183.0149428437273</v>
@@ -37944,19 +37944,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M43" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O43" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P43" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>505.5072506367422</v>
       </c>
       <c r="M45" t="n">
-        <v>255.2809642593575</v>
+        <v>176.7023187895681</v>
       </c>
       <c r="N45" t="n">
-        <v>195.9332901573516</v>
+        <v>274.511935627141</v>
       </c>
       <c r="O45" t="n">
         <v>550.6587635209718</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.9439559331129</v>
+        <v>63.94395593311285</v>
       </c>
       <c r="K46" t="n">
         <v>183.0149428437273</v>
@@ -38181,19 +38181,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M46" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O46" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P46" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139301</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
